--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data pribadi\Sem7\ML\TB_Praktikum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data pribadi\Sem7\Machine Learning\TB_Praktikum\TugasPraktikumML_212-202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F544C00-238B-4C19-91BB-1807B63F0F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FDCE05-C8F0-49CD-AEE4-ED35F8246F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69785BDA-A4B7-4DF2-AA12-13B89B42EC3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Sprint Project</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Tanggal Selesai</t>
   </si>
   <si>
-    <t>Tanggal Penyelesaian</t>
-  </si>
-  <si>
     <t>Developer</t>
   </si>
   <si>
@@ -54,40 +51,64 @@
     <t>Waiting</t>
   </si>
   <si>
-    <t>Modelling</t>
-  </si>
-  <si>
-    <t>Database design</t>
-  </si>
-  <si>
-    <t>Data preprocessing</t>
-  </si>
-  <si>
-    <t>Model inference</t>
-  </si>
-  <si>
-    <t>Model evaluation</t>
-  </si>
-  <si>
-    <t>Prediksi data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front-end </t>
-  </si>
-  <si>
-    <t>Back-end</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Husein</t>
   </si>
   <si>
     <t>Adhi</t>
+  </si>
+  <si>
+    <t>Analisis Dataset</t>
+  </si>
+  <si>
+    <t>Data Preprocessing</t>
+  </si>
+  <si>
+    <t>Modelling CNN1</t>
+  </si>
+  <si>
+    <t>Evaluasi CNN1</t>
+  </si>
+  <si>
+    <t>Modelling CNN2</t>
+  </si>
+  <si>
+    <t>Evaluasi CNN2</t>
+  </si>
+  <si>
+    <t>Save Model 1 dan 2</t>
+  </si>
+  <si>
+    <t>Development Front-End Web</t>
+  </si>
+  <si>
+    <t>Configurasi Flask</t>
+  </si>
+  <si>
+    <t>Development Back-End Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment </t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>11 Oktober 2021</t>
+  </si>
+  <si>
+    <t>23 Oktober</t>
+  </si>
+  <si>
+    <t>24 Oktober</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Oktober </t>
+  </si>
+  <si>
+    <t>25 Oktober</t>
+  </si>
+  <si>
+    <t>26 Oktober</t>
   </si>
 </sst>
 </file>
@@ -154,7 +175,116 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -163,112 +293,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -283,66 +308,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -660,15 +684,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCF303D-17AF-4351-B443-16E0FF75AF1B}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="29.5546875" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="26.5546875" customWidth="1"/>
@@ -684,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -696,7 +720,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -712,188 +736,217 @@
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>8</v>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>3</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>5</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>6</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="F14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>8</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>9</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="24"/>
-      <c r="F14" s="3"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data pribadi\Sem7\Machine Learning\TB_Praktikum\TugasPraktikumML_212-202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumen Penting\TB_Praktikum\TugasPraktikumML_212-202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FDCE05-C8F0-49CD-AEE4-ED35F8246F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07347C0B-C98D-4A0E-9ACF-DCF3E32D39F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69785BDA-A4B7-4DF2-AA12-13B89B42EC3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{69785BDA-A4B7-4DF2-AA12-13B89B42EC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -686,21 +686,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCF303D-17AF-4351-B443-16E0FF75AF1B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -711,7 +711,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -720,7 +720,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -780,7 +780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -800,7 +800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -820,7 +820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -837,10 +837,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -857,10 +857,10 @@
         <v>9</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -877,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -896,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -912,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -928,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21" t="s">
         <v>20</v>
@@ -942,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" s="4"/>
     </row>
   </sheetData>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumen Penting\TB_Praktikum\TugasPraktikumML_212-202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07347C0B-C98D-4A0E-9ACF-DCF3E32D39F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA116C7-443E-4578-B907-D1B41786BD31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{69785BDA-A4B7-4DF2-AA12-13B89B42EC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>Sprint Project</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Save Model 1 dan 2</t>
   </si>
   <si>
-    <t>Development Front-End Web</t>
-  </si>
-  <si>
     <t>Configurasi Flask</t>
   </si>
   <si>
@@ -109,6 +106,24 @@
   </si>
   <si>
     <t>26 Oktober</t>
+  </si>
+  <si>
+    <t>Membuat image generator</t>
+  </si>
+  <si>
+    <t>8 Nopember</t>
+  </si>
+  <si>
+    <t>Testing Model 1</t>
+  </si>
+  <si>
+    <t>Testing Model 2</t>
+  </si>
+  <si>
+    <t>Testing Model 3</t>
+  </si>
+  <si>
+    <t>9 Nopember</t>
   </si>
 </sst>
 </file>
@@ -684,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCF303D-17AF-4351-B443-16E0FF75AF1B}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,16 +763,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -768,16 +783,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -788,16 +803,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -808,16 +823,16 @@
         <v>13</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -828,16 +843,16 @@
         <v>14</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -848,16 +863,16 @@
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -868,32 +883,36 @@
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -901,49 +920,111 @@
         <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="E12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F12" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="4"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumen Penting\TB_Praktikum\TugasPraktikumML_212-202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumen Penting\TB Prak ML\TugasPraktikumML_212-202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA116C7-443E-4578-B907-D1B41786BD31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B1C452-A985-4461-B24E-F98CF7118BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{69785BDA-A4B7-4DF2-AA12-13B89B42EC3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Sprint Project</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>9 Nopember</t>
+  </si>
+  <si>
+    <t>Testing model elu dan sgd</t>
+  </si>
+  <si>
+    <t>3 Desember</t>
+  </si>
+  <si>
+    <t>3 Des</t>
   </si>
 </sst>
 </file>
@@ -699,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCF303D-17AF-4351-B443-16E0FF75AF1B}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,20 +984,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>7</v>
+      <c r="F15" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -996,35 +1009,51 @@
         <v>13</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20">
+      <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="21" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="4"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumen Penting\TB Prak ML\TugasPraktikumML_212-202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B1C452-A985-4461-B24E-F98CF7118BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D16681C-65D9-4F7E-BD31-13317657C3AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{69785BDA-A4B7-4DF2-AA12-13B89B42EC3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Sprint Project</t>
   </si>
@@ -132,7 +132,13 @@
     <t>3 Desember</t>
   </si>
   <si>
-    <t>3 Des</t>
+    <t>Testing Model VGG16</t>
+  </si>
+  <si>
+    <t>Testing Model VGG19</t>
+  </si>
+  <si>
+    <t>16 Desember</t>
   </si>
 </sst>
 </file>
@@ -708,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCF303D-17AF-4351-B443-16E0FF75AF1B}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -995,7 +1001,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>8</v>
@@ -1004,56 +1010,96 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>13</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="E16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>14</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20">
-        <v>15</v>
-      </c>
-      <c r="B18" s="21" t="s">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="21" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="4"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumen Penting\TB Prak ML\TugasPraktikumML_212-202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D16681C-65D9-4F7E-BD31-13317657C3AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A1CE24-33E1-4817-9D8E-605D52F04E83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{69785BDA-A4B7-4DF2-AA12-13B89B42EC3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>Sprint Project</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Waiting</t>
-  </si>
-  <si>
     <t>Husein</t>
   </si>
   <si>
@@ -78,15 +75,6 @@
     <t>Save Model 1 dan 2</t>
   </si>
   <si>
-    <t>Configurasi Flask</t>
-  </si>
-  <si>
-    <t>Development Back-End Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment </t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -139,6 +127,27 @@
   </si>
   <si>
     <t>16 Desember</t>
+  </si>
+  <si>
+    <t>Configurasi Flask Model 3- 5</t>
+  </si>
+  <si>
+    <t>28 Desember</t>
+  </si>
+  <si>
+    <t>Configurasi Flask Model 2</t>
+  </si>
+  <si>
+    <t>31 Desember</t>
+  </si>
+  <si>
+    <t>Development Full Stack Web</t>
+  </si>
+  <si>
+    <t>Deployment Heroku</t>
+  </si>
+  <si>
+    <t>1 Januari</t>
   </si>
 </sst>
 </file>
@@ -714,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCF303D-17AF-4351-B443-16E0FF75AF1B}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -775,19 +784,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -795,19 +804,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -815,19 +824,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -835,19 +844,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -855,19 +864,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -875,19 +884,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -895,19 +904,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -915,19 +924,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -935,19 +944,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -955,19 +964,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -975,19 +984,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -995,19 +1004,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1015,19 +1024,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1035,19 +1044,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
@@ -1055,51 +1064,83 @@
         <v>15</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>16</v>
-      </c>
-      <c r="B19" s="19" t="s">
+      <c r="B20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="20">
         <v>18</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="21" t="s">
+      <c r="B21" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C25" s="4"/>
+      <c r="F21" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
